--- a/biology/Zoologie/Darevskia_praticola/Darevskia_praticola.xlsx
+++ b/biology/Zoologie/Darevskia_praticola/Darevskia_praticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Darevskia praticola est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darevskia praticola est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Azerbaïdjan, en Arménie, en Géorgie, dans le sud de la Russie, en Thrace orientale en Turquie, en Grèce, en Bulgarie, en Roumanie et en Serbie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Azerbaïdjan, en Arménie, en Géorgie, dans le sud de la Russie, en Thrace orientale en Turquie, en Grèce, en Bulgarie, en Roumanie et en Serbie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 mai 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 mai 2014) :
 Darevskia praticola hyrcanica Tuniyev, Doronin, Kidov &amp; Tuniyev, 2011
 Darevskia praticola praticola (Eversmann, 1834)
 Darevskia praticola loriensis Tuniyev, Doronin, Tuniyev, Aghasyan, Kidov &amp; Aghasyan, 2013</t>
@@ -575,9 +591,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Darevskia praticola pontica a été élevé au rang d'espèce[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darevskia praticola pontica a été élevé au rang d'espèce.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Eversmann, 1834 : Lacertae Imperii Rossici variis in itineribus meis observatae. Nouveaux mémoires de la Société impériale des naturalistes de Moscou, vol. 3, p. 337-372 (texte intégral).
 Tuniyev, Doronin, Kidov &amp; Tuniyev, 2011 : Systematic and Geographical Variability of Meadow Lizard, Darevskia praticola (Reptilia: Sauria) in the Caucasus Russian. Journal of Herpetology, vol. 18, no 4, p. 295–316.
